--- a/example/example2.xlsx
+++ b/example/example2.xlsx
@@ -350,7 +350,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="3" min="3" width="50"/>
+    <col customWidth="true" max="3" min="1" width="40"/>
   </cols>
   <sheetData>
     <row r="1">
